--- a/1 DES/frequencia.xlsx
+++ b/1 DES/frequencia.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\julia_calhau-2024\1 DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6683D145-8DF2-4112-AC9D-FA7CC8EC7061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2190" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="2190" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
     <sheet name="Chamada" sheetId="1" r:id="rId2"/>
+    <sheet name="NOTAS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="97">
   <si>
     <t>Alunos</t>
   </si>
@@ -286,22 +286,43 @@
     <t>Yan Gabriel Sousa Gomes</t>
   </si>
   <si>
-    <t>Ter</t>
-  </si>
-  <si>
     <t>Qua</t>
   </si>
   <si>
-    <t>1/P</t>
-  </si>
-  <si>
     <t>4/P</t>
+  </si>
+  <si>
+    <t>18/</t>
+  </si>
+  <si>
+    <t>LOP</t>
+  </si>
+  <si>
+    <t>ALUNOS</t>
+  </si>
+  <si>
+    <t>VPSO1</t>
+  </si>
+  <si>
+    <t>VPS02</t>
+  </si>
+  <si>
+    <t>LER</t>
+  </si>
+  <si>
+    <t>TRAB.</t>
+  </si>
+  <si>
+    <t>SOP</t>
+  </si>
+  <si>
+    <t>AITO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,7 +356,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -343,11 +364,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,11 +403,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -706,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1053,134 +1115,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AS42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC40" sqref="AC40"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.7109375" style="1"/>
-    <col min="6" max="6" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="23" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="6.7109375" style="1"/>
+    <col min="3" max="3" width="6.7109375" style="1"/>
+    <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="2">
-        <v>45342</v>
+        <v>45343</v>
       </c>
       <c r="D1" s="2">
-        <v>45343</v>
+        <v>45350</v>
       </c>
       <c r="E1" s="2">
-        <v>45349</v>
+        <v>45357</v>
       </c>
       <c r="F1" s="2">
-        <v>45350</v>
+        <v>45364</v>
       </c>
       <c r="G1" s="2">
-        <v>45356</v>
+        <v>45371</v>
       </c>
       <c r="H1" s="2">
-        <v>45357</v>
+        <v>45378</v>
       </c>
       <c r="I1" s="2">
-        <v>45363</v>
+        <v>45385</v>
       </c>
       <c r="J1" s="2">
-        <v>45364</v>
+        <v>45392</v>
       </c>
       <c r="K1" s="2">
-        <v>45370</v>
+        <v>45399</v>
       </c>
       <c r="L1" s="2">
-        <v>45371</v>
+        <v>45406</v>
       </c>
       <c r="M1" s="2">
-        <v>45377</v>
+        <v>45413</v>
       </c>
       <c r="N1" s="2">
-        <v>45378</v>
+        <v>45420</v>
       </c>
       <c r="O1" s="2">
-        <v>45384</v>
+        <v>45427</v>
       </c>
       <c r="P1" s="2">
-        <v>45385</v>
+        <v>45434</v>
       </c>
       <c r="Q1" s="2">
-        <v>45391</v>
+        <v>45441</v>
       </c>
       <c r="R1" s="2">
-        <v>45392</v>
+        <v>45448</v>
       </c>
       <c r="S1" s="2">
-        <v>45398</v>
+        <v>45454</v>
       </c>
       <c r="T1" s="2">
-        <v>45399</v>
-      </c>
-      <c r="U1" s="2">
-        <v>45405</v>
-      </c>
-      <c r="V1" s="2">
-        <v>45406</v>
-      </c>
-      <c r="W1" s="2">
-        <v>45412</v>
-      </c>
-      <c r="X1" s="2">
-        <v>45413</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>45419</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>45420</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>45426</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>45427</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>45433</v>
-      </c>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+        <v>45455</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1191,85 +1221,52 @@
         <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="Q2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="R2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
@@ -1315,50 +1312,8 @@
       <c r="O3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
@@ -1404,50 +1359,8 @@
       <c r="O4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
@@ -1493,50 +1406,8 @@
       <c r="O5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
@@ -1582,50 +1453,8 @@
       <c r="O6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
@@ -1671,50 +1500,8 @@
       <c r="O7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -1760,50 +1547,8 @@
       <c r="O8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -1849,50 +1594,8 @@
       <c r="O9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
@@ -1938,50 +1641,8 @@
       <c r="O10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
@@ -2027,50 +1688,8 @@
       <c r="O11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>56</v>
       </c>
@@ -2116,50 +1735,8 @@
       <c r="O12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
@@ -2191,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>3</v>
@@ -2205,50 +1782,8 @@
       <c r="O13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>58</v>
       </c>
@@ -2274,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>3</v>
@@ -2294,50 +1829,8 @@
       <c r="O14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>59</v>
       </c>
@@ -2357,14 +1850,14 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="1" t="s">
         <v>3</v>
       </c>
@@ -2383,50 +1876,8 @@
       <c r="O15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>60</v>
       </c>
@@ -2470,52 +1921,10 @@
         <v>3</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AC16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -2561,50 +1970,8 @@
       <c r="O17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>62</v>
       </c>
@@ -2621,7 +1988,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>3</v>
@@ -2633,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>3</v>
@@ -2650,50 +2017,8 @@
       <c r="O18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>63</v>
       </c>
@@ -2719,7 +2044,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>3</v>
@@ -2739,50 +2064,8 @@
       <c r="O19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
@@ -2828,50 +2111,8 @@
       <c r="O20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>65</v>
       </c>
@@ -2917,50 +2158,8 @@
       <c r="O21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>66</v>
       </c>
@@ -2980,20 +2179,20 @@
         <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="1" t="s">
         <v>3</v>
       </c>
@@ -3006,50 +2205,8 @@
       <c r="O22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>67</v>
       </c>
@@ -3095,50 +2252,8 @@
       <c r="O23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>68</v>
       </c>
@@ -3184,50 +2299,8 @@
       <c r="O24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>69</v>
       </c>
@@ -3273,50 +2346,8 @@
       <c r="O25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>70</v>
       </c>
@@ -3362,50 +2393,8 @@
       <c r="O26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
@@ -3451,50 +2440,8 @@
       <c r="O27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>72</v>
       </c>
@@ -3540,50 +2487,8 @@
       <c r="O28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>73</v>
       </c>
@@ -3609,13 +2514,13 @@
         <v>3</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>3</v>
@@ -3627,52 +2532,10 @@
         <v>3</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>74</v>
       </c>
@@ -3713,55 +2576,13 @@
         <v>3</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
@@ -3805,52 +2626,10 @@
         <v>3</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>76</v>
       </c>
@@ -3896,50 +2675,8 @@
       <c r="O32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>77</v>
       </c>
@@ -3985,50 +2722,8 @@
       <c r="O33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>78</v>
       </c>
@@ -4074,50 +2769,8 @@
       <c r="O34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC34" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>79</v>
       </c>
@@ -4161,52 +2814,10 @@
         <v>3</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AB35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>80</v>
       </c>
@@ -4226,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>3</v>
@@ -4241,7 +2852,7 @@
         <v>3</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>3</v>
@@ -4252,50 +2863,8 @@
       <c r="O36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>81</v>
       </c>
@@ -4327,7 +2896,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>3</v>
@@ -4341,50 +2910,8 @@
       <c r="O37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC37" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>82</v>
       </c>
@@ -4428,52 +2955,10 @@
         <v>3</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AB38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC38" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
@@ -4519,50 +3004,8 @@
       <c r="O39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC39" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>84</v>
       </c>
@@ -4579,7 +3022,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>3</v>
@@ -4591,67 +3034,25 @@
         <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC40" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>85</v>
       </c>
@@ -4695,75 +3096,309 @@
         <v>3</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AC41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B28">
+  <sortState ref="A3:B28">
     <sortCondition ref="B2:B28"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:BX41">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="C3:BH41">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="9" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="8"/>
+    <col min="8" max="11" width="9.140625" style="8"/>
+    <col min="13" max="16" width="9.140625" style="8"/>
+    <col min="18" max="21" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="10"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:B33">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>